--- a/kandi_correlation_of_crabpaper_data.xlsx
+++ b/kandi_correlation_of_crabpaper_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\OneDrive\Desktop\B.S.-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB501B-2B37-4A1F-9ABD-EA162B31671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF587F-8508-4E2E-8770-E8C719B84DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33765" yWindow="2175" windowWidth="20445" windowHeight="14115" activeTab="1" xr2:uid="{ABCB80C3-F0F0-41AC-99E7-71767D79D1EE}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{ABCB80C3-F0F0-41AC-99E7-71767D79D1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -384,7 +384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-SE"/>
+          <a:endParaRPr lang="en-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -568,7 +568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-SE"/>
+              <a:endParaRPr lang="en-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -606,7 +606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2146040640"/>
@@ -688,7 +688,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-SE"/>
+              <a:endParaRPr lang="en-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -720,7 +720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2146025664"/>
@@ -768,7 +768,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1679,15 +1679,15 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>-1.0835767428516974</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>-2.4272449721659992</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>-1.4212154391052003</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>-1.1636817504484007</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>-0.9402954345556207</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>-0.46341650751623931</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>-0.64904377319455975</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>-0.19328579253311062</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>-0.15783036952169027</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>0</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>4.1610290333800037E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>19</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>-0.17406665245519903</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>39</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>-0.52198422610379858</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>59</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>-0.21971871409309962</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>79</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>-0.21440130925840073</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>99</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0.14286476650910096</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <v>119</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>-0.25004610236550029</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C26" s="2">
         <v>139</v>
       </c>
@@ -2450,13 +2450,13 @@
         <v>0.41313943323580027</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <v>0</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>-0.14087089587910029</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>19</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.20417693128869985</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>39</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0.10062169951609867</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C35" s="2">
         <v>59</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>0.10786930651499915</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>79</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>-0.16636612908590109</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C37" s="2">
         <v>99</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>-0.39825102584110006</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C38" s="5">
         <v>119</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>-0.56575858772830045</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>139</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>-0.5024507199896</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C40" s="5">
         <v>159</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-0.38311382922639936</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C41" s="2">
         <v>179</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>-0.61487318575390049</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C42" s="5">
         <v>199</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>-0.51862348924420054</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C43" s="2">
         <v>219</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>-0.47524896366840075</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C44" s="5">
         <v>239</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>-0.41816542682980007</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C45" s="2">
         <v>259</v>
       </c>
@@ -3056,18 +3056,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB66D48-90C1-4F90-B6FE-C8722FABC206}">
   <dimension ref="B4:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>50</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>100</v>
       </c>
@@ -3118,8 +3118,8 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="13">
         <v>200</v>
       </c>
       <c r="D7">
@@ -3132,7 +3132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>300</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1</v>
       </c>
@@ -3183,16 +3183,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>10</v>
       </c>
       <c r="D14">
@@ -3208,7 +3208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>20</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>50</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
         <v>37</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="12">
         <v>1E-3</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" s="9">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" s="9">
         <v>0.02</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="9">
         <v>0.06</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
         <v>42</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>44</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>45</v>
       </c>
